--- a/config_ios/item_gun_config.xlsx
+++ b/config_ios/item_gun_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="156">
   <si>
     <t>id|行号</t>
   </si>
@@ -573,10 +573,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"&lt;color=#fff173&gt;激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类&lt;/color&gt;",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>GunPrefab6_ui</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -585,10 +581,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"&lt;color=#fff173&gt;穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类&lt;/color&gt;",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>BulletPrefab_3d_6_ui</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -613,10 +605,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"&lt;color=#fff173&gt;核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类&lt;/color&gt;",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>GunPrefab8_ui</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -633,19 +621,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"&lt;color=#fff173&gt;死亡之灵：攻击指定点，捕获周围鱼类&lt;/color&gt;","&lt;color=#00fff0&gt;被动效果：提高捕获奖金鱼后获得高倍的几率&lt;/color&gt;"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"3dby_icon_sw_skill",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"3dby_icon_sl_skill",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"&lt;color=#fff173&gt;神龙杀：瞬间提高子弹250%的杀伤力&lt;/color&gt;","&lt;color=#00fff0&gt;被动效果：提高击杀龙王的概率&lt;/color&gt;"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -770,6 +750,21 @@
   <si>
     <t>gun_barrel_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"&lt;color=#fffd33&gt;激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类&lt;/color&gt;",</t>
+  </si>
+  <si>
+    <t>"&lt;color=#fffd33&gt;穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类&lt;/color&gt;",</t>
+  </si>
+  <si>
+    <t>"&lt;color=#fffd33&gt;核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类&lt;/color&gt;",</t>
+  </si>
+  <si>
+    <t>"&lt;color=#fffd33&gt;死亡之灵：攻击指定点，捕获周围鱼类&lt;/color&gt;","&lt;color=#ffffff&gt;被动效果：提高捕获奖金鱼后获得高倍的几率&lt;/color&gt;"</t>
+  </si>
+  <si>
+    <t>"&lt;color=#fffd33&gt;神龙杀：瞬间提高子弹250%的杀伤力&lt;/color&gt;","&lt;color=#ffffff&gt;被动效果：提高击杀龙王的概率&lt;/color&gt;"</t>
   </si>
 </sst>
 </file>
@@ -1258,9 +1253,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1345,7 +1340,7 @@
         <v>118</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1356,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -1368,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -1471,19 +1466,19 @@
         <v>10345</v>
       </c>
       <c r="P4" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="R4" s="14" t="s">
+      <c r="S4" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="T4" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1531,19 +1526,19 @@
         <v>10344</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="S5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="T5" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1578,13 +1573,13 @@
         <v>52</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>64</v>
@@ -1593,22 +1588,22 @@
         <v>10343</v>
       </c>
       <c r="P6" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="T6" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="Q6" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="S6" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>132</v>
-      </c>
       <c r="U6" s="26" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1658,19 +1653,19 @@
         <v>10342</v>
       </c>
       <c r="P7" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="T7" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1708,10 +1703,10 @@
         <v>59</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>64</v>
@@ -1720,22 +1715,22 @@
         <v>10341</v>
       </c>
       <c r="P8" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="S8" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="R8" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>141</v>
-      </c>
       <c r="T8" s="28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1746,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -1758,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H9" s="4">
         <v>8</v>
